--- a/doc/课件资源.xlsx
+++ b/doc/课件资源.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\uiautotest\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="DesiredCapabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>公用</t>
   </si>
@@ -60,25 +55,25 @@
     <t>手机类型或模拟器类型</t>
   </si>
   <si>
-    <t>iPhone Simulator, iPad Simulator, Android Emulator, Galaxy S4等。在 iOS 上，这个关键字的值必须是使用 instruments -s devices 得到的可使用的设备名称之一。在 Android 上，这个关键字目前不起作用。</t>
+    <t>iPhone Simulator, iPad Simulator, Android Emulator, Galaxy S4等。在iOS上，这个关键字的值必须是使用 instruments -s devices得到的可使用的设备名称之一。在Android上，这个关键字目前不起作用，但必须要有。</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>.ipa 或者 .apk(也可以使是包含他们的zip)文件所在的本地绝对路径或者远程路径</t>
-  </si>
-  <si>
-    <t>Appium会先尝试安装路径对应的应用在适当的真机或模拟器上。针对Android系统，如果你指定app-package和app-activity(具体见下面)的话，那么就可以不指定app。</t>
+    <t>.ipa或者.apk(也可以是包含他们的zip)文件所在的本地绝对路径或者远程路径</t>
+  </si>
+  <si>
+    <t>Appium会先尝试安装路径对应的应用在适当的真机或模拟器上。针对Android系统，如果你指定appPackage和appActivity的话，那么就可以不指定app。</t>
   </si>
   <si>
     <t>browserName</t>
   </si>
   <si>
-    <t>需要进行自动化测试的手机 web 浏览器名称。如果是对应用进行自动化测试，这个关键字的值应为空。</t>
-  </si>
-  <si>
-    <t>iOS 系统上可以用 ‘Safari‘ ，Android 系统上可以用 ‘Chrome‘, ‘Chromium‘, 或 ‘Browser‘。</t>
+    <t>需要进行自动化测试的手机web浏览器名称。如果是对应用进行自动化测试，这个关键字的值应为空</t>
+  </si>
+  <si>
+    <t>iOS系统上可以用Safari，Android系统上可以用Chrome,Chromium,Browser。</t>
   </si>
   <si>
     <t>automationName</t>
@@ -87,7 +82,64 @@
     <t>自动化测试引擎</t>
   </si>
   <si>
-    <t>Appium,Selendroid</t>
+    <t>Appium(默认),Selendroid</t>
+  </si>
+  <si>
+    <t>newCommandTimeOut</t>
+  </si>
+  <si>
+    <t>设置命令超时时间，单位：秒。达到超时时间仍未接收到新的命令时appium会假设客户端退出然后自动结束会话。</t>
+  </si>
+  <si>
+    <t>默认：60</t>
+  </si>
+  <si>
+    <t>autoLaunch</t>
+  </si>
+  <si>
+    <t>appium是否需要自动安装和启动应用</t>
+  </si>
+  <si>
+    <t>true(默认) or false</t>
+  </si>
+  <si>
+    <t>udid</t>
+  </si>
+  <si>
+    <t>连接的设备的唯一设备编号(Unique device identifier)</t>
+  </si>
+  <si>
+    <t>如 `1ae203187fc012g`</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>屏幕位置</t>
+  </si>
+  <si>
+    <t>LANDSCAPE(横向)或PORTRAIT(纵向)</t>
+  </si>
+  <si>
+    <t>autoWebview</t>
+  </si>
+  <si>
+    <t>直接转换到WebView上下文</t>
+  </si>
+  <si>
+    <t>true or false(默认)</t>
+  </si>
+  <si>
+    <t>noReset</t>
+  </si>
+  <si>
+    <t>不要在会话前重置应用状态</t>
+  </si>
+  <si>
+    <t>fullRest</t>
+  </si>
+  <si>
+    <t>（IOS）删除整个摸机器目录。（Android）通过卸载而不是清空数据来重置应用状态，在Android上，这也会在会话结束后自动清除实测应用</t>
   </si>
   <si>
     <t>Android专用</t>
@@ -99,30 +151,42 @@
     <t>你想运行的Android应用的包名</t>
   </si>
   <si>
-    <t>比如com.example.android.myApp</t>
+    <t>比如：com.example.android.myApp</t>
   </si>
   <si>
     <t>appActivity</t>
   </si>
   <si>
-    <t>要从应用包中启动的 Android Activity 名称</t>
-  </si>
-  <si>
-    <t>它通常需要在前面添加 . (如：使用.MainActivity 而不是 MainActivity) MainActivity, .Settings</t>
+    <t>要从应用包中启动的Android Activity名称</t>
+  </si>
+  <si>
+    <t>比如：com.baidu.testapp.MainActivity或.MainActiviey</t>
   </si>
   <si>
     <t>appWaitActivity</t>
   </si>
   <si>
-    <t>你想要等待启动的 Android Activity 名称</t>
-  </si>
-  <si>
-    <t>SplashActivity</t>
+    <t>你想要等待启动的Android Activity名称</t>
+  </si>
+  <si>
+    <t>比如：.SplashActivity</t>
+  </si>
+  <si>
+    <t>unicodeKeyboard</t>
+  </si>
+  <si>
+    <t>使用Unicode输入法，支持多国语言</t>
+  </si>
+  <si>
+    <t>true or false</t>
   </si>
   <si>
     <t>resetKeyboard</t>
   </si>
   <si>
+    <t>在设定了unicodeKeyboard关键字的Unicode测试结束后，重置输入法到原有状态。如果单独使用，将会被忽略。默认值false</t>
+  </si>
+  <si>
     <t>IOS专用</t>
   </si>
   <si>
@@ -135,15 +199,6 @@
     <t>如 `io.appium.TestApp`</t>
   </si>
   <si>
-    <t>udid</t>
-  </si>
-  <si>
-    <t>连接的真实设备的唯一设备编号 ( Unique device identifier )</t>
-  </si>
-  <si>
-    <t>如 `1ae203187fc012g`</t>
-  </si>
-  <si>
     <t>autoAcceptAlerts</t>
   </si>
   <si>
@@ -487,29 +542,19 @@
   </si>
   <si>
     <t>group-by-instances="true"</t>
-  </si>
-  <si>
-    <t>使用Unicode输入法，支持多国语言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>true 表示是，false 表示否，默认false</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicodeKeyboard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在测试完成后自动切换回原有输入法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +572,7 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -538,21 +583,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -590,13 +959,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,8 +1223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,18 +1238,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -925,28 +1592,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="56.75" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="54">
+    <row r="5" ht="54" spans="2:4">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="40.5">
+    <row r="6" ht="40.5" spans="2:4">
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="54">
+    <row r="7" ht="27" spans="2:4">
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1028,80 +1695,157 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="9" ht="40.5" spans="2:4">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="2:4">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="2:4">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="27">
-      <c r="B22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="27">
-      <c r="B23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>31</v>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="B24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="2:4">
+      <c r="B25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1115,169 +1859,160 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="94.5">
+    <row r="31" ht="67.5" spans="2:4">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="27">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="2:4">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="54">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="46.75" customWidth="1"/>
     <col min="4" max="4" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>58</v>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="81.375" customWidth="1"/>
@@ -1285,7 +2020,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -1293,140 +2028,141 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="2:3">
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
@@ -1434,223 +2170,223 @@
     <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="16.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" ht="33.75" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" ht="33.75" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="33.75" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" ht="33.75" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" ht="33.75" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="33.75" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="33">
-      <c r="B11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="33">
-      <c r="B12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" ht="33.75" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="33">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" ht="33.75" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="16.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/课件资源.xlsx
+++ b/doc/课件资源.xlsx
@@ -11,15 +11,16 @@
     <sheet name="ADB常用命令" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
-  <si>
-    <t>公用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+  <si>
+    <t>公用Capability</t>
   </si>
   <si>
     <t>关键字</t>
@@ -142,7 +143,7 @@
     <t>（IOS）删除整个摸机器目录。（Android）通过卸载而不是清空数据来重置应用状态，在Android上，这也会在会话结束后自动清除实测应用</t>
   </si>
   <si>
-    <t>Android专用</t>
+    <t>Android专用Capability</t>
   </si>
   <si>
     <t>appPackage</t>
@@ -187,7 +188,7 @@
     <t>在设定了unicodeKeyboard关键字的Unicode测试结束后，重置输入法到原有状态。如果单独使用，将会被忽略。默认值false</t>
   </si>
   <si>
-    <t>IOS专用</t>
+    <t>IOS专用Capability</t>
   </si>
   <si>
     <t>bundleId</t>
@@ -203,9 +204,6 @@
   </si>
   <si>
     <t>当 iOS 的个人信息访问警告 (如 位置、联系人、图片) 出现时，自动选择接受( Accept )。默认值 `false`</t>
-  </si>
-  <si>
-    <t>`true` 或者 `false`</t>
   </si>
   <si>
     <t>ADB常用命令</t>
@@ -549,9 +547,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -584,6 +582,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -591,7 +596,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,89 +701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -720,8 +717,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,187 +734,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,26 +958,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,37 +1006,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1044,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1065,149 +1063,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,17 +1224,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,6 +1235,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1600,288 +1601,299 @@
   <sheetPr/>
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="56.75" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:4">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:4">
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:4">
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="2:4">
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="2:4">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="67.5" spans="2:4">
-      <c r="B31" t="s">
+    <row r="31" ht="54" spans="2:4">
+      <c r="B31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="40.5" spans="2:4">
-      <c r="B32" t="s">
+    <row r="32" ht="27" spans="2:4">
+      <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
-        <v>62</v>
+      <c r="D32" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B29:D29"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1894,7 +1906,7 @@
   <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1905,12 +1917,12 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1918,82 +1930,82 @@
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2032,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -2028,122 +2040,122 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" ht="27" spans="2:3">
       <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2172,221 +2184,237 @@
   <sheetData>
     <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:5">
       <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" ht="33.75" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" ht="33.75" spans="2:5">
       <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" ht="33.75" spans="2:5">
       <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" ht="33.75" spans="2:5">
       <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" ht="33.75" spans="2:5">
       <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" ht="33.75" spans="2:5">
       <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" ht="33.75" spans="2:5">
       <c r="B12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" ht="33.75" spans="2:5">
       <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" ht="33.75" spans="2:5">
       <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:5">
       <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:5">
       <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/课件资源.xlsx
+++ b/doc/课件资源.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DesiredCapabilities" sheetId="1" r:id="rId1"/>
     <sheet name="ADB常用命令" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="testNG" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="自动化用例编写" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>公用Capability</t>
   </si>
@@ -540,6 +540,66 @@
   </si>
   <si>
     <t>group-by-instances="true"</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>前提条件</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>login_001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>系统正常运行</t>
+  </si>
+  <si>
+    <t>1.在用户名输入框中输入用户名</t>
+  </si>
+  <si>
+    <t>用户名信息输入正确</t>
+  </si>
+  <si>
+    <t>2.在密码输入框输入正确的密码</t>
+  </si>
+  <si>
+    <t>密码信息输入正确</t>
+  </si>
+  <si>
+    <t>3.点击登录按钮</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>1.进入登录页面</t>
+  </si>
+  <si>
+    <t>成功进入登录页面</t>
+  </si>
+  <si>
+    <t>2.在id为username的用户名输入框中输入用户名admin</t>
+  </si>
+  <si>
+    <t>3.在id为password的密码输入框中输入正确的密码abc</t>
+  </si>
+  <si>
+    <t>4.点击id为submit的登录按钮</t>
   </si>
 </sst>
 </file>
@@ -582,14 +642,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +687,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -612,15 +704,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,22 +733,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,54 +784,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -734,187 +794,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +985,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -944,45 +1019,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -993,39 +1029,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,6 +1058,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1063,10 +1123,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,180 +1135,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1652,7 @@
   <sheetPr/>
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1609,282 +1660,282 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="56.75" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:4">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="2:4">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="2:4">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" ht="54" spans="2:4">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" ht="27" spans="2:4">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1921,90 +1972,90 @@
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2021,7 +2072,7 @@
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2031,130 +2082,130 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" ht="27" spans="2:3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2170,8 +2221,8 @@
   <sheetPr/>
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2188,212 +2239,212 @@
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:5">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:5">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" ht="33.75" spans="2:5">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" ht="33.75" spans="2:5">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" ht="33.75" spans="2:5">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" ht="33.75" spans="2:5">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" ht="33.75" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" ht="33.75" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" ht="33.75" spans="2:5">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" ht="33.75" spans="2:5">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" ht="33.75" spans="2:5">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:5">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:5">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:5">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2406,14 +2457,166 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C9:C12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
